--- a/vyacheslav_work/predicted_price.xlsx
+++ b/vyacheslav_work/predicted_price.xlsx
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>45600</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="3">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>39900</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39600</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="6">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>42700</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="7">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>42200</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>41200</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="9">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>39200</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>38600</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="11">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36100</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="12">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>36300</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="13">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33200</v>
+        <v>35300</v>
       </c>
     </row>
     <row r="14">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>33200</v>
+        <v>35400</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>33500</v>
+        <v>36200</v>
       </c>
     </row>
     <row r="16">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35900</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="17">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>37300</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="18">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>37500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="19">
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>38700</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="20">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39900</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="21">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>41200</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="22">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>41700</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="23">
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>40300</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="24">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>41600</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="25">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41400</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="26">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>43000</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="27">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>44300</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="28">
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>48200</v>
+        <v>48400</v>
       </c>
     </row>
   </sheetData>

--- a/vyacheslav_work/predicted_price.xlsx
+++ b/vyacheslav_work/predicted_price.xlsx
@@ -475,67 +475,67 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Лом_HMS 1/2 80:20, FOB США Восток, $/т</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Лом_3А, FOB РФ Черное море, $/т</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Лом_HMS 1/2 80:20, CFR ЮВА, $/т</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Лом_3А, РФ FCA ж/д респ. Татарстан, руб./т, без НДС</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Лом_3А, РФ FCA ж/д Московский регион, руб./т, без НДС</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Чугун_FOB Россия Черное море, $/т</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Чугун_Россия, FCA руб./т, без НДС</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ГБЖ_CFR Италия, $/т</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Лом_3А, РФ CPT ж/д Уральский ФО, руб./т, без НДС</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Лом_HMS 1/2 80:20, CFR Турция, $/т</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Чугун_CFR Китай, $/т</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Чугун_CFR Турция, $/т</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>cap</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>price_diff</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -567,46 +567,46 @@
         <v>108.5</v>
       </c>
       <c r="H2" t="n">
+        <v>368</v>
+      </c>
+      <c r="I2" t="n">
         <v>351</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>440</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>22383</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>21498</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>370</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>23350</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>397.5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>24665</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>396</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>425</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>400</v>
       </c>
-      <c r="S2" t="n">
-        <v>118500</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U2" t="n">
-        <v>45700</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="3">
@@ -632,46 +632,46 @@
         <v>108.5</v>
       </c>
       <c r="H3" t="n">
+        <v>342</v>
+      </c>
+      <c r="I3" t="n">
         <v>328</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>415</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>21766</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>21004</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>360</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>23350</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>375</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>24300</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>373</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>415</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>390</v>
       </c>
-      <c r="S3" t="n">
-        <v>118500</v>
-      </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="U3" t="n">
-        <v>42100</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="4">
@@ -697,46 +697,46 @@
         <v>110.5</v>
       </c>
       <c r="H4" t="n">
+        <v>322</v>
+      </c>
+      <c r="I4" t="n">
         <v>305</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>390</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>21340</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>20865</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>355</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>23350</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>351.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>24178</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>350</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>405</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>390</v>
       </c>
-      <c r="S4" t="n">
-        <v>118500</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="U4" t="n">
-        <v>40000</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="5">
@@ -762,46 +762,46 @@
         <v>110.5</v>
       </c>
       <c r="H5" t="n">
+        <v>322</v>
+      </c>
+      <c r="I5" t="n">
         <v>292</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>385</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>21207</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>20763</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>355</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>23350</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>352.5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>24155</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>351</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>405</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>395</v>
       </c>
-      <c r="S5" t="n">
-        <v>118500</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>40600</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="6">
@@ -827,46 +827,46 @@
         <v>108.5</v>
       </c>
       <c r="H6" t="n">
+        <v>338</v>
+      </c>
+      <c r="I6" t="n">
         <v>309</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>395</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>21294</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>20652</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>365</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>23350</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>372.5</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>24239</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>368</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>415</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>420</v>
       </c>
-      <c r="S6" t="n">
-        <v>118500</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>43700</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="7">
@@ -892,46 +892,46 @@
         <v>108.5</v>
       </c>
       <c r="H7" t="n">
+        <v>340</v>
+      </c>
+      <c r="I7" t="n">
         <v>311</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>405</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>21285</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>20551</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>395</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>22000</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>372.5</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>24246</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>370</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>425</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>432.5</v>
       </c>
-      <c r="S7" t="n">
-        <v>118500</v>
-      </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>43400</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="8">
@@ -957,46 +957,46 @@
         <v>109.5</v>
       </c>
       <c r="H8" t="n">
+        <v>336</v>
+      </c>
+      <c r="I8" t="n">
         <v>312</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>405</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>21123</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>20338</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>395</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>22000</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>372.5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>24176</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>371</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>422.5</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>427.5</v>
       </c>
-      <c r="S8" t="n">
-        <v>118500</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>42500</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="9">
@@ -1022,46 +1022,46 @@
         <v>103.5</v>
       </c>
       <c r="H9" t="n">
+        <v>328</v>
+      </c>
+      <c r="I9" t="n">
         <v>306</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>405</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>21143</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>20665</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>395</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>22000</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>367.5</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>24203</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>365</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>410</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>422.5</v>
       </c>
-      <c r="S9" t="n">
-        <v>118500</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>40300</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="10">
@@ -1087,46 +1087,46 @@
         <v>94.5</v>
       </c>
       <c r="H10" t="n">
+        <v>323</v>
+      </c>
+      <c r="I10" t="n">
         <v>300</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>405</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>20740</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>20021</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>379</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>22000</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>362.5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>23860</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>359</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>400</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>407.5</v>
       </c>
-      <c r="S10" t="n">
-        <v>118500</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>39600</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="11">
@@ -1152,46 +1152,46 @@
         <v>92</v>
       </c>
       <c r="H11" t="n">
+        <v>320</v>
+      </c>
+      <c r="I11" t="n">
         <v>265</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>394</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>20630</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>18986</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>370</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>22500</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>357.5</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>22976</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>354</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>385</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>400</v>
       </c>
-      <c r="S11" t="n">
-        <v>118500</v>
-      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>38700</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="12">
@@ -1217,46 +1217,46 @@
         <v>96</v>
       </c>
       <c r="H12" t="n">
+        <v>313</v>
+      </c>
+      <c r="I12" t="n">
         <v>257</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>378</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>18825</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>18023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>345</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>22500</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>352.5</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>21898</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>346</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>375</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>387.5</v>
       </c>
-      <c r="S12" t="n">
-        <v>118500</v>
-      </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38900</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="13">
@@ -1282,46 +1282,46 @@
         <v>104</v>
       </c>
       <c r="H13" t="n">
+        <v>306</v>
+      </c>
+      <c r="I13" t="n">
         <v>259</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>368</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>18403</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>17733</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>335</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>22500</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>344.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>21532</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>338</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>375</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>380</v>
       </c>
-      <c r="S13" t="n">
-        <v>118500</v>
-      </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35300</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="14">
@@ -1347,46 +1347,46 @@
         <v>104</v>
       </c>
       <c r="H14" t="n">
+        <v>313</v>
+      </c>
+      <c r="I14" t="n">
         <v>271</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>350</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>18069</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>17629</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>361</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>22500</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>353</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>21227</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>347</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>375</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>382.5</v>
       </c>
-      <c r="S14" t="n">
-        <v>118500</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35400</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="15">
@@ -1412,46 +1412,46 @@
         <v>110</v>
       </c>
       <c r="H15" t="n">
+        <v>340</v>
+      </c>
+      <c r="I15" t="n">
         <v>297</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>350</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>17981</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>17000</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>350</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>21000</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>373.5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>20770</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>370</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>400</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>392.5</v>
       </c>
-      <c r="S15" t="n">
-        <v>118500</v>
-      </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>36200</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="16">
@@ -1477,46 +1477,46 @@
         <v>116</v>
       </c>
       <c r="H16" t="n">
+        <v>354</v>
+      </c>
+      <c r="I16" t="n">
         <v>311</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>366</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>17668</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>16939</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>355</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>21000</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>379</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>20444</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>384</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>407.5</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>392.5</v>
       </c>
-      <c r="S16" t="n">
-        <v>118500</v>
-      </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>38200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="17">
@@ -1542,46 +1542,46 @@
         <v>116</v>
       </c>
       <c r="H17" t="n">
+        <v>358</v>
+      </c>
+      <c r="I17" t="n">
         <v>312</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>405</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>17384</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>16962</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>355</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>21000</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>385</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>20072</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>387</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>422.5</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>392.5</v>
       </c>
-      <c r="S17" t="n">
-        <v>118500</v>
-      </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>39500</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="18">
@@ -1607,40 +1607,40 @@
         <v>115</v>
       </c>
       <c r="H18" t="n">
+        <v>356</v>
+      </c>
+      <c r="I18" t="n">
         <v>311</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>400</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>17035</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>16999</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>359</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>21000</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>385</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>19730</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>386</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>425</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>400</v>
-      </c>
-      <c r="S18" t="n">
-        <v>118500</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1672,46 +1672,46 @@
         <v>119</v>
       </c>
       <c r="H19" t="n">
+        <v>367</v>
+      </c>
+      <c r="I19" t="n">
         <v>320</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>402</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>17009</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>17045</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>370</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>21000</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>392.5</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>19743</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>395</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>430</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>402.5</v>
       </c>
-      <c r="S19" t="n">
-        <v>118500</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>41000</v>
+        <v>41100</v>
       </c>
     </row>
     <row r="20">
@@ -1737,46 +1737,46 @@
         <v>120</v>
       </c>
       <c r="H20" t="n">
+        <v>387</v>
+      </c>
+      <c r="I20" t="n">
         <v>338</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>402</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>16537</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>17360</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>377</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>22500</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>411.5</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>20566</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>413</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>425</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>422.5</v>
       </c>
-      <c r="S20" t="n">
-        <v>118500</v>
-      </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>41800</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="21">
@@ -1802,46 +1802,46 @@
         <v>127.5</v>
       </c>
       <c r="H21" t="n">
+        <v>395</v>
+      </c>
+      <c r="I21" t="n">
         <v>347</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>425</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>18012</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>18415</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>405</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>22500</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>416</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>20764</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>417</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>457.5</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>448.5</v>
       </c>
-      <c r="S21" t="n">
-        <v>118500</v>
-      </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>43200</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="22">
@@ -1867,46 +1867,46 @@
         <v>131.5</v>
       </c>
       <c r="H22" t="n">
+        <v>385</v>
+      </c>
+      <c r="I22" t="n">
         <v>336</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>440</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>19384</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>19702</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>400</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>22500</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>407.5</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>21449</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>406</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>457.5</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>452.5</v>
       </c>
-      <c r="S22" t="n">
-        <v>118500</v>
-      </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>44000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="23">
@@ -1932,46 +1932,46 @@
         <v>136</v>
       </c>
       <c r="H23" t="n">
+        <v>393</v>
+      </c>
+      <c r="I23" t="n">
         <v>343</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>435</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>20519</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>21036</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>400</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>22500</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>412.5</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>22424</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>413</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>457.5</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>442.5</v>
       </c>
-      <c r="S23" t="n">
-        <v>118500</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>42900</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="24">
@@ -1997,46 +1997,46 @@
         <v>136</v>
       </c>
       <c r="H24" t="n">
+        <v>404</v>
+      </c>
+      <c r="I24" t="n">
         <v>359</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>435</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>21336</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>21794</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>410</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>24000</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>421.5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>23780</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>424</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>450</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>477.5</v>
       </c>
-      <c r="S24" t="n">
-        <v>118500</v>
-      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>43400</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="25">
@@ -2062,46 +2062,46 @@
         <v>136.5</v>
       </c>
       <c r="H25" t="n">
+        <v>409</v>
+      </c>
+      <c r="I25" t="n">
         <v>363</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>446</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>22626</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>22058</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>415</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>24000</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>421.5</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>24807</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>428</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>445</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>457.5</v>
       </c>
-      <c r="S25" t="n">
-        <v>118500</v>
-      </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>42600</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="26">
@@ -2127,46 +2127,46 @@
         <v>137.5</v>
       </c>
       <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>354</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>443</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>23297</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>22134</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>423</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>24000</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>418</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>25635</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>419</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>447.5</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>465</v>
       </c>
-      <c r="S26" t="n">
-        <v>118500</v>
-      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>43900</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="27">
@@ -2192,46 +2192,46 @@
         <v>143</v>
       </c>
       <c r="H27" t="n">
+        <v>422</v>
+      </c>
+      <c r="I27" t="n">
         <v>375</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>443</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>23404</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>22039</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>423</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>24000</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>438.5</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>26010</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>440</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>455</v>
       </c>
       <c r="R27" t="n">
         <v>455</v>
       </c>
       <c r="S27" t="n">
-        <v>118500</v>
+        <v>455</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>44700</v>
+        <v>46100</v>
       </c>
     </row>
     <row r="28">
@@ -2257,46 +2257,46 @@
         <v>139</v>
       </c>
       <c r="H28" t="n">
+        <v>430</v>
+      </c>
+      <c r="I28" t="n">
         <v>387</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>448</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>24078</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>22056</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>430</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>25500</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>453.5</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>26555</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>452</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>447.5</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>467.5</v>
       </c>
-      <c r="S28" t="n">
-        <v>118500</v>
-      </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46600</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="29">
@@ -2322,46 +2322,46 @@
         <v>141</v>
       </c>
       <c r="H29" t="n">
+        <v>434</v>
+      </c>
+      <c r="I29" t="n">
         <v>393</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>453</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>24550</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>23004</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>452</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>25500</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>460</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>27052</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>458</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>447.5</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>475</v>
       </c>
-      <c r="S29" t="n">
-        <v>118500</v>
-      </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>48400</v>
+        <v>50600</v>
       </c>
     </row>
   </sheetData>
